--- a/SkySim_0.1/testcases.xlsx
+++ b/SkySim_0.1/testcases.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Valve" sheetId="1" r:id="rId1"/>
     <sheet name="Heater" sheetId="2" r:id="rId2"/>
+    <sheet name="Mixer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>test</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>add 1 eq = dH=mCpdT</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>Fmass3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Fmol3</t>
+  </si>
+  <si>
+    <t>1. pressure is lowest inlet or equalise all.</t>
+  </si>
+  <si>
+    <t>2. asd</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -167,16 +191,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -185,7 +209,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="556260" y="2567940"/>
+          <a:off x="2133600" y="952500"/>
           <a:ext cx="10134600" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -219,10 +243,72 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-MY" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="510540" y="175260"/>
+          <a:ext cx="10134600" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -876,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,6 +1469,174 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SkySim_0.1/testcases.xlsx
+++ b/SkySim_0.1/testcases.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\East101\Adri\SkySim\SkySim_0.1\SkySim_0.1\"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t>test</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>T3</t>
-  </si>
-  <si>
-    <t>Fmol3</t>
   </si>
   <si>
     <t>1. pressure is lowest inlet or equalise all.</t>
@@ -257,15 +254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -274,8 +271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="510540" y="175260"/>
-          <a:ext cx="10134600" cy="259080"/>
+          <a:off x="457200" y="1615440"/>
+          <a:ext cx="8305800" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -580,6 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -960,6 +958,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1476,15 +1475,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:Q17"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A4:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1524,19 +1524,10 @@
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1566,7 +1557,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
       <c r="B6">
         <v>2</v>
       </c>
@@ -1595,44 +1589,140 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SkySim_0.1/testcases.xlsx
+++ b/SkySim_0.1/testcases.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Valve" sheetId="1" r:id="rId1"/>
     <sheet name="Heater" sheetId="2" r:id="rId2"/>
     <sheet name="Mixer" sheetId="3" r:id="rId3"/>
+    <sheet name="Splitter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
   <si>
     <t>test</t>
   </si>
@@ -113,6 +114,15 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Stream1</t>
+  </si>
+  <si>
+    <t>Stream2</t>
+  </si>
+  <si>
+    <t>Stream3</t>
   </si>
 </sst>
 </file>
@@ -254,13 +264,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>441960</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>213360</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
@@ -271,7 +281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="1615440"/>
+          <a:off x="441960" y="1615440"/>
           <a:ext cx="8305800" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -283,6 +293,461 @@
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9418320" y="1744980"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9448800" y="769620"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11788140" y="1318260"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Pentagon 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10927080" y="640080"/>
+          <a:ext cx="952500" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="441960" y="1615440"/>
+          <a:ext cx="8305800" cy="259080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-MY" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13662660" y="1257300"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11269980" y="1668780"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13655040" y="2133600"/>
+          <a:ext cx="1440180" cy="22860"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Pentagon 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12755880" y="1005840"/>
+          <a:ext cx="952500" cy="1356360"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1476,15 +1941,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A4:N17"/>
+  <dimension ref="A4:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1989,11 @@
       <c r="N4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1557,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1621,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1650,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1678,8 +2146,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1705,17 +2176,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1723,6 +2194,266 @@
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:X19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SkySim_0.1/testcases.xlsx
+++ b/SkySim_0.1/testcases.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Valve" sheetId="1" r:id="rId1"/>
     <sheet name="Heater" sheetId="2" r:id="rId2"/>
     <sheet name="Mixer" sheetId="3" r:id="rId3"/>
     <sheet name="Splitter" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
   <si>
     <t>test</t>
   </si>
@@ -123,6 +125,21 @@
   </si>
   <si>
     <t>Stream3</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>enth</t>
+  </si>
+  <si>
+    <t>heatflow</t>
+  </si>
+  <si>
+    <t>entrop</t>
+  </si>
+  <si>
+    <t>entrop[y flow</t>
   </si>
 </sst>
 </file>
@@ -2204,14 +2221,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:X19"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="D2:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="4:24" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>0</v>
@@ -2263,19 +2298,10 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
         <v>1</v>
       </c>
       <c r="O4">
@@ -2292,6 +2318,21 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
@@ -2300,23 +2341,63 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
       <c r="E7">
         <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:24" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>5</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
       <c r="X8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="E9">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:24" x14ac:dyDescent="0.3">
@@ -2460,4 +2541,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="C6:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G9:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>35.9</v>
+      </c>
+      <c r="E6">
+        <v>26.2</v>
+      </c>
+      <c r="F6">
+        <f>E6+D6</f>
+        <v>62.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>18234</v>
+      </c>
+      <c r="E7">
+        <v>-2339</v>
+      </c>
+      <c r="F7">
+        <v>9539</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>-2.5</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f>D7*D6</f>
+        <v>654600.6</v>
+      </c>
+      <c r="E9">
+        <f>E7*E6</f>
+        <v>-61281.799999999996</v>
+      </c>
+      <c r="F9">
+        <f>F7*F6</f>
+        <v>592371.89999999991</v>
+      </c>
+      <c r="G9">
+        <f>(D9+E9-F9)/D9*100</f>
+        <v>0.14465309075488525</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <f>D8*D6</f>
+        <v>3338.7</v>
+      </c>
+      <c r="E10">
+        <f>E8*E6</f>
+        <v>-65.5</v>
+      </c>
+      <c r="F10">
+        <f>F8*F6</f>
+        <v>3291.2999999999997</v>
+      </c>
+      <c r="G10">
+        <f>(D10+E10-F10)/D10*100</f>
+        <v>-0.54212717524784826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SkySim_0.1/testcases.xlsx
+++ b/SkySim_0.1/testcases.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9492" windowHeight="6612" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Valve" sheetId="1" r:id="rId1"/>
     <sheet name="Heater" sheetId="2" r:id="rId2"/>
     <sheet name="Mixer" sheetId="3" r:id="rId3"/>
     <sheet name="Splitter" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Compressor" sheetId="5" r:id="rId5"/>
+    <sheet name="Separator" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t>test</t>
   </si>
@@ -127,19 +128,109 @@
     <t>Stream3</t>
   </si>
   <si>
-    <t>flow</t>
-  </si>
-  <si>
-    <t>enth</t>
-  </si>
-  <si>
-    <t>heatflow</t>
-  </si>
-  <si>
-    <t>entrop</t>
-  </si>
-  <si>
-    <t>entrop[y flow</t>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Pvap</t>
+  </si>
+  <si>
+    <t>Pliq</t>
+  </si>
+  <si>
+    <t>Xin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xvap </t>
+  </si>
+  <si>
+    <t>Xliq</t>
+  </si>
+  <si>
+    <t>Fmol in</t>
+  </si>
+  <si>
+    <t>Fmol vap</t>
+  </si>
+  <si>
+    <t>Fmol liq</t>
+  </si>
+  <si>
+    <t>Fmass in</t>
+  </si>
+  <si>
+    <t>Fmass vap</t>
+  </si>
+  <si>
+    <t>Fmass liq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin </t>
+  </si>
+  <si>
+    <t>Tvap</t>
+  </si>
+  <si>
+    <t>T liq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hin </t>
+  </si>
+  <si>
+    <t>Hvap</t>
+  </si>
+  <si>
+    <t>Hliq</t>
+  </si>
+  <si>
+    <t>Qin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Pbott</t>
+  </si>
+  <si>
+    <t>Pout</t>
+  </si>
+  <si>
+    <t>Fout</t>
+  </si>
+  <si>
+    <t>denis</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>Cv</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>err</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>tau</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1154,7 @@
   <dimension ref="B2:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B2" sqref="B2:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,7 +1535,7 @@
   <dimension ref="B2:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B2" sqref="B2:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2546,97 +2637,1280 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C6:G10"/>
+  <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G9:G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1">
+        <v>0.63855085681410095</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
       <c r="D6">
-        <v>35.9</v>
+        <f>C6/$D$2</f>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>26.2</v>
+        <f>D6*$D$3*9.81</f>
+        <v>98100</v>
       </c>
       <c r="F6">
-        <f>E6+D6</f>
-        <v>62.099999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <f>F6*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>G6*(E6-H6)^0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <f>C6+(B6-I6)*(A7-A6)</f>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>18234</v>
+        <f>C7/$D$2</f>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>-2339</v>
+        <f>D7*$D$3*9.81</f>
+        <v>98100</v>
       </c>
       <c r="F7">
-        <v>9539</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>35</v>
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f>F7*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>G7*(E7-H7)^0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <f>C7+(B7-I7)*(A8-A7)</f>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <f>C8/$D$2</f>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>-2.5</v>
+        <f>D8*$D$3*9.81</f>
+        <v>98100</v>
       </c>
       <c r="F8">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>34</v>
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <f>F8*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>G8*(E8-H8)^0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <f>C8+(B8-I8)*(A9-A8)</f>
+        <v>11</v>
       </c>
       <c r="D9">
-        <f>D7*D6</f>
-        <v>654600.6</v>
+        <f>C9/$D$2</f>
+        <v>11</v>
       </c>
       <c r="E9">
-        <f>E7*E6</f>
-        <v>-61281.799999999996</v>
+        <f>D9*$D$3*9.81</f>
+        <v>107910</v>
       </c>
       <c r="F9">
-        <f>F7*F6</f>
-        <v>592371.89999999991</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <f>(D9+E9-F9)/D9*100</f>
-        <v>0.14465309075488525</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>36</v>
+        <f>F9*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>G9*(E9-H9)^0.5</f>
+        <v>104.88088481701516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>110</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C21" si="0">C9+(B9-I9)*(A10-A9)</f>
+        <v>11.511911518298485</v>
       </c>
       <c r="D10">
-        <f>D8*D6</f>
-        <v>3338.7</v>
+        <f t="shared" ref="D10:D21" si="1">C10/$D$2</f>
+        <v>11.511911518298485</v>
       </c>
       <c r="E10">
-        <f>E8*E6</f>
-        <v>-65.5</v>
+        <f t="shared" ref="E10:E21" si="2">D10*$D$3*9.81</f>
+        <v>112931.85199450814</v>
       </c>
       <c r="F10">
-        <f>F8*F6</f>
-        <v>3291.2999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <f>(D10+E10-F10)/D10*100</f>
-        <v>-0.54212717524784826</v>
+        <f t="shared" ref="G10:G21" si="3">F10*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ref="I10:I21" si="4">G10*(E10-H10)^0.5</f>
+        <v>107.2935763142346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>110</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>11.782553886875025</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>11.782553886875025</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>115586.85363024399</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>108.54747296402172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>11.927806590472853</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>11.927806590472853</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>117011.78265253871</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>109.21449807819864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0.7</v>
+      </c>
+      <c r="B13">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>12.006356782652988</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>12.006356782652988</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>117782.36003782583</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>109.57352226999456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>12.049004555653532</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>12.049004555653532</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>118200.73469096115</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>109.76795778210294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15">
+        <v>110</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>12.072208777443239</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>12.072208777443239</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>118428.36810671818</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>109.87360364274596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>12.084848413168642</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>12.084848413168642</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>118552.36293318438</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>109.93110757728516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B17">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>12.091737655440125</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>12.091737655440125</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>118619.94639986764</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>109.96243747498565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1.2</v>
+      </c>
+      <c r="B18">
+        <v>110</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>12.095493907941561</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>12.095493907941561</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>118656.79523690672</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>109.97951585609732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1.3</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>12.097542322331829</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>12.097542322331829</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>118676.89018207527</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>109.98882817055483</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1.4</v>
+      </c>
+      <c r="B20">
+        <v>110</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>12.098659505276347</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>12.098659505276347</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>118687.84974676096</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>109.99390667339873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.5</v>
+      </c>
+      <c r="B21">
+        <v>110</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>12.099268837936474</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>12.099268837936474</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>118693.82730015682</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>109.99667648586696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1.6</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <f>C21+(B21-I21)*(A22-A21)</f>
+        <v>12.099601189349778</v>
+      </c>
+      <c r="D22">
+        <f>C22/$D$2</f>
+        <v>12.099601189349778</v>
+      </c>
+      <c r="E22">
+        <f>D22*$D$3*9.81</f>
+        <v>118697.08766752132</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <f>F22*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>G22*(E22-H22)^0.5</f>
+        <v>109.99818720937986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.7</v>
+      </c>
+      <c r="B23">
+        <v>110</v>
+      </c>
+      <c r="C23">
+        <f>C22+(B22-I22)*(A23-A22)</f>
+        <v>12.099782468411792</v>
+      </c>
+      <c r="D23">
+        <f>C23/$D$2</f>
+        <v>12.099782468411792</v>
+      </c>
+      <c r="E23">
+        <f>D23*$D$3*9.81</f>
+        <v>118698.8660151197</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <f>F23*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>G23*(E23-H23)^0.5</f>
+        <v>109.99901121560956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1.8</v>
+      </c>
+      <c r="B24">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24" si="5">C23+(B23-I23)*(A24-A23)</f>
+        <v>12.099881346850836</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="6">C24/$D$2</f>
+        <v>12.099881346850836</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="7">D24*$D$3*9.81</f>
+        <v>118699.83601260671</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24" si="8">F24*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24" si="9">G24*(E24-H24)^0.5</f>
+        <v>109.99946066618163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.9</v>
+      </c>
+      <c r="B25">
+        <v>110</v>
+      </c>
+      <c r="C25">
+        <f>C24+(B24-I24)*(A25-A24)</f>
+        <v>12.099935280232673</v>
+      </c>
+      <c r="D25">
+        <f>C25/$D$2</f>
+        <v>12.099935280232673</v>
+      </c>
+      <c r="E25">
+        <f>D25*$D$3*9.81</f>
+        <v>118700.36509908253</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <f>F25*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>G25*(E25-H25)^0.5</f>
+        <v>109.99970581884607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26">
+        <f>C25+(B25-I25)*(A26-A25)</f>
+        <v>12.099964698348066</v>
+      </c>
+      <c r="D26">
+        <f>C26/$D$2</f>
+        <v>12.099964698348066</v>
+      </c>
+      <c r="E26">
+        <f>D26*$D$3*9.81</f>
+        <v>118700.65369079453</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <f>F26*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>G26*(E26-H26)^0.5</f>
+        <v>109.99983953782872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2.1</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <f>C26+(B26-I26)*(A27-A26)</f>
+        <v>12.099980744565194</v>
+      </c>
+      <c r="D27">
+        <f>C27/$D$2</f>
+        <v>12.099980744565194</v>
+      </c>
+      <c r="E27">
+        <f>D27*$D$3*9.81</f>
+        <v>118700.81110418456</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <f>F27*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>G27*(E27-H27)^0.5</f>
+        <v>109.99991247526152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B28">
+        <v>110</v>
+      </c>
+      <c r="C28">
+        <f>C27+(B27-I27)*(A28-A27)</f>
+        <v>12.099989497039042</v>
+      </c>
+      <c r="D28">
+        <f>C28/$D$2</f>
+        <v>12.099989497039042</v>
+      </c>
+      <c r="E28">
+        <f>D28*$D$3*9.81</f>
+        <v>118700.896965953</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <f>F28*$D$1</f>
+        <v>0.31927542840705048</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>G28*(E28-H28)^0.5</f>
+        <v>109.99995225925802</v>
       </c>
     </row>
   </sheetData>
